--- a/Excel/device_toolbar.xlsx
+++ b/Excel/device_toolbar.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -79,9 +79,6 @@
     <t>The proprietary ASIO interface standard is essential on Windows for low latency recording and playback. It is also usually the best way of making multi-channel recordings on Windows.Licensing restrictions prevent us including ASIO support in released versions of Audacity, but Audacity can be compiled with ASIO support for private, non-distributable use. See ASIO Audio Interface which</t>
   </si>
   <si>
-    <t>summarizes ASIO licensing issues and steps to compile Audacity with ASIO support.</t>
-  </si>
-  <si>
     <t>On Mac the only choice is Core Audio.</t>
   </si>
   <si>
@@ -145,127 +142,130 @@
     <t>On GNU/Linux, playback is often managed by a sound server or mixer such as pulse or dmix. It is normally best to select "default". This will choose whatever is the system default playback device or server. The (hw:) playback devices give direct, lower latency access to the sound card output, bypassing any sound servers.</t>
   </si>
   <si>
-    <t>डिव्हाइस टूलबार - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>डिव्हाइस टूलबार</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>डिव्‍हाइस टूलबार आपले ऑडिओ होस्ट, रेकॉर्डिंग डिव्‍हाइस, रेकॉर्डिंग चॅनेल आणि प्लेबॅक डिव्‍हाइसची आवश्‍यकता निवडण्यासाठी, डिव्‍हाइसेस प्राधान्ये न उघडता एक सोपा मार्ग प्रदान करतो.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
     <t>प्ले करताना, रेकॉर्डिंग करताना किंवा विराम दिल्यावर डिव्हाइस टूलबार बाहेर पडतो. डिव्हाइस वापरात असताना आपण डिव्हाइस निवडी बदलू शकत नाही.</t>
   </si>
   <si>
-    <t>रेझिझर</t>
-  </si>
-  <si>
-    <t>उजवीकडील रेझिझर हँडल वापरुन, आपण दर्शविलेले डीफॉल्ट रुंदीपेक्षा विस्तृत होण्यासाठी डिव्हाइस टूलबार उजवीकडे वरुन विस्तृत करू शकता किंवा त्यास कमी रुंद करण्यासाठी डावीकडे ड्रॅग करा. निवडलेल्या आयटमसाठी पूर्ण मजकूर पाहण्यासाठी आपण कधीही ऑडसिटीच्या चार बॉक्सपैकी कोणत्याही एकावर फिरू शकता.</t>
-  </si>
-  <si>
-    <t>ऑडिओ होस्ट</t>
-  </si>
-  <si>
-    <t>विशिष्ट इंटरफेस निवडतो ज्याद्वारे ऑडॅसिटी आपल्या निवडलेल्या प्लेबॅक आणि रेकॉर्डिंग डिव्हाइससह संप्रेषण करते.</t>
-  </si>
-  <si>
-    <t>विंडोजवर, निवड खालील ऑडिओ इंटरफेस दरम्यान आहे:</t>
-  </si>
-  <si>
-    <t>एमएमईः हे ऑडॅसिटी डीफॉल्ट आहे आणि सर्व ऑडिओ डिव्हाइससह सर्वात अनुकूल आहे.</t>
-  </si>
-  <si>
     <t>विंडोज डायरेक्टसाऊंडः संभाव्यत कमी विलंब असलेल्या एमएमईपेक्षा हे अगदी अलीकडील आहे.</t>
   </si>
   <si>
-    <t>Windows WASAPI: हे होस्ट अनुप्रयोग (जसे की ऑडॅसिटी) आणि ऑडिओ इंटरफेस ड्राइव्हर दरम्यान सर्वात अलीकडील विंडोज इंटरफेस आहे. WASAPI प्रथम अधिकृतपणे 2007 मध्ये विंडोज व्हिस्टामध्ये प्रसिद्ध झाले. खासकरुन संगणक प्लेबॅक रेकॉर्डिंगसाठी "लूपबॅक" करण्यासाठी वासा उपयुक्त आहे. हे होस्ट वापरुन 24-बिट रेकॉर्डिंग डिव्हाइस समर्थित आहेत. प्लेबॅक सहसा अनुकरण केले जाते. याचा परिणाम म्हणून, मिक्सर टूलबारमधील प्लेबॅक स्लाइडर थेट सिस्टम स्लाइडरमध्ये फेरफार करण्याऐवजी सिस्टम प्लेबॅक स्लाइडरची सद्य पातळी खाली किंवा खाली स्केल करेल.</t>
-  </si>
-  <si>
     <t>विंडोज वर:</t>
   </si>
   <si>
     <t>डीफॉल्टनुसार विंडोज डायरेक्टसाऊंडमध्ये एमएमईपेक्षा थोडीशी कमी उशीर असू शकते.</t>
   </si>
   <si>
-    <t>विंडोज डायरेक्टसाऊंड किंवा विंडोज डब्ल्यूएएसपीआय निवडणे आणि विंडोज साऊंडमध्ये दोन्ही "एक्सक्लूसिव मोड" बॉक्स सक्षम केल्याने ऑडॅसिटीला रीमॅम्पलिंगशिवाय डिव्हाइसमधून ऑडिओ थेट विनंती करण्याची परवानगी मिळते.</t>
-  </si>
-  <si>
-    <t>विंडोजवर कमी विलंब रेकॉर्डिंग आणि प्लेबॅकसाठी मालकीचे एएसआयओ इंटरफेस मानक आवश्यक आहे. विंडोजवर मल्टी-चॅनेल रेकॉर्डिंग करण्याचा हा एक सामान्य मार्ग देखील आहे. लायसेंसिंग प्रतिबंध आम्हाला ऑडसिटीच्या रिलीज केलेल्या आवृत्त्यांमध्ये एएसआयओ समर्थन समाविष्ट करण्यास प्रतिबंधित करते, परंतु ऑडसिटी खाजगी, वितरित न करण्यायोग्य वापरासाठी एएसआयओ समर्थनासह संकलित केले जाऊ शकते. ASIO ऑडिओ इंटरफेस पहा जे</t>
-  </si>
-  <si>
-    <t>एएसआयओ परवाना देणार्‍या समस्यांचा आणि एएसआयओ समर्थनासह ऑडॅसिटीचे संकलन करण्याच्या चरणांचे सारांश.</t>
-  </si>
-  <si>
-    <t>मॅक वर एकमेव पर्याय कोअर ऑडिओ आहे.</t>
-  </si>
-  <si>
     <t>लिनक्स वर बर्‍याचदा एकच पर्याय असतोः ALSA. इतर पर्याय ओएसएस आणि / किंवा जॅक ऑडिओ कनेक्शन किट ("जॅक" किंवा "जॅकड" म्हणून देखील ओळखले जातात) असू शकतात.</t>
   </si>
   <si>
-    <t>रेकॉर्डिंग डिव्हाइस</t>
-  </si>
-  <si>
-    <t>आपण रेकॉर्डिंगसाठी वापरू इच्छित अंगभूत किंवा संलग्न ध्वनी डिव्हाइस निवडा.</t>
-  </si>
-  <si>
-    <t>वरील प्रतिमेत, जेव्हा विंडोज "एमएमई" ऑडिओ होस्ट निवडले जाते तेव्हा "मायक्रोसॉफ्ट साउंड मॅपर - इनपुट" दिसते. त्याचप्रमाणे "मॅपर" आउटपुट प्रमाणे, "मॅपर" इनपुट असे डिव्हाइस आहे जे विद्यमान डीफॉल्ट विंडोज रेकॉर्डिंग डिव्हाइस आहे. जेव्हा "विंडोज डायरेक्टसाऊंड" ऑडिओ होस्ट निवडले जाते, तेव्हा विद्यमान विंडोज रेकॉर्डिंग डिव्हाइसवर नकाशे करणार्‍या डिव्हाइसला "प्राइमरी साउंड कॅप्चर ड्राइव्हर" असे म्हणतात.</t>
-  </si>
-  <si>
-    <t>बर्‍याच प्रकरणांमध्ये (उदाहरणार्थ, इनबिल्ट कॉम्प्यूटर साऊंड डिव्हाइस) रेकॉर्डिंग डिव्हाइसच्या प्रत्येक एंट्रीमध्ये डिव्हाइसचे प्रकार असतात (जसे की मायक्रोफोन), ज्याचे नाव नंतर कंसात ठेवले जाते</t>
-  </si>
-  <si>
     <t>साउंड कार्ड निर्माता.</t>
   </si>
   <si>
-    <t>मॅक वर, अंतर्गत साउंड कार्ड रेकॉर्डिंग इनपुट सामान्यत: "अंगभूत" म्हणून ओळखले जातात.</t>
-  </si>
-  <si>
-    <t>GNU / Linux वर, रेकॉर्डिंग बर्‍याचदा पल्स साऊंड सर्व्हरद्वारे व्यवस्थापित केले जाते. सामान्यतः "डीफॉल्ट" निवडणे चांगले. हे सिस्टीम डीफॉल्ट साउंड कार्ड किंवा सर्व्हर जे आहे ते निवडेल, नंतर कार्ड किंवा सर्व्हरसाठी नियंत्रण अनुप्रयोगात आवश्यक असलेले अचूक इनपुट डिव्हाइस निवडा (जसे की पल्स ऑडिओ व्हॉल्यूम कंट्रोल). (एचडब्ल्यू :) रेकॉर्डिंग डिव्हाइस कोणत्याही ध्वनी सर्व्हरला मागे टाकून ऑडिओ इंटरफेस इनपुटमध्ये थेट, कमी उशीरा प्रवेश देते. अंगभूत (एचडब्ल्यू :) आवाज उपकरणासाठी, ALSAmixer मधील अचूक इनपुट निवडा.</t>
-  </si>
-  <si>
     <t>डिव्हाइसद्वारे संगणकाद्वारे निवडीसाठी केवळ एक संभाव्य इनपुट असल्यास (उदाहरणार्थ, एक यूएसबी मायक्रोफोन), केवळ इनपुट प्रकार नसल्यास केवळ डिव्हाइसचे नाव सूचीबद्ध केले जाईल.</t>
   </si>
   <si>
-    <t>ऑडॅसिटी खुला असताना आपण एखादे बाह्य डिव्हाइस संलग्न किंवा डिस्कनेक्ट केले असल्यास, प्ले किंवा रेकॉर्डिंग करण्यापूर्वी डिव्हाइस सूची अद्यतनित करण्यासाठी परिवहन&gt; रेस्कन ऑडिओ डिव्हाइस वापरा.</t>
-  </si>
-  <si>
-    <t>रेकॉर्डिंग चॅनेल</t>
-  </si>
-  <si>
-    <t>1 (मोनो), 2 (स्टीरिओ) किंवा आपल्या आवाज डिव्हाइसच्या ड्रायव्हर्सद्वारे प्रदान केलेल्या चॅनेलची संख्या. बर्‍याच इनबिल्ट साउंड डिव्‍हाइसेसवर, विशेषत: विंडोजवर, फक्त मोनो किंवा स्टीरिओ उपलब्ध असतील. विंडोजवरील काही उपकरणांसाठी, उपरोक्त "ऑडिओ होस्ट" मध्ये विंडोज डायरेक्टसाऊंड निवडणे कदाचित दोनपेक्षा जास्त चॅनेल रेकॉर्ड करण्यासाठी पर्याय प्रकट करू शकेल. दोनपेक्षा अधिक चॅनेल रेकॉर्ड करण्यास सक्षम असलेल्या काही डिव्हाइसवर, सर्व चॅनेल एकाच वेळी रेकॉर्ड करण्यासाठी "डिव्हाइस" ड्रॉपडाऊनमध्ये एक स्पष्ट "मल्टी" डिव्हाइस दिसू शकते.</t>
-  </si>
-  <si>
-    <t>जर आपले रेकॉर्डिंग डिव्हाइस मोनो असेल तर जसे की इनबिल्ट साऊंड डिव्हाइससाठी बहुतेक मायक्रोफोन पोर्ट, रेकॉर्डिंग चॅनेलमधील "2 (स्टीरिओ)" निवडणे केवळ दुहेरी मोनो रेकॉर्डिंग तयार करून, दोन्ही चॅनेलमध्ये मोनो स्त्रोताची प्रत बनवते.</t>
-  </si>
-  <si>
-    <t>जर आपले रेकॉर्डिंग डिव्हाइस स्टिरीओ असेल तर रेकॉर्डिंग चॅनेल "2 (स्टीरिओ)" वर सेट करणे तसेच सिस्टीममधील कोणतीही सेटिंग्ज किंवा ध्वनी डिव्हाइस नियंत्रण पॅनेल स्टिरीओ असल्याचे सुनिश्चित करा. विंडोजवरील बर्‍याच इनपुट डिव्हाइसेस मोटो रेकॉर्डिंगमध्ये डीफॉल्ट नसतात जरी ते स्टिरिओ डिव्हाइस असतात. हे दुरुस्त करण्यासाठी या सूचनांचे अनुसरण करा.</t>
-  </si>
-  <si>
     <t>प्लेबॅक डिव्हाइस</t>
   </si>
   <si>
     <t>आपण प्लेबॅकसाठी वापरू इच्छित अंगभूत किंवा संलग्न ध्वनी डिव्हाइस निवडा.</t>
   </si>
   <si>
-    <t>वरील प्रतिमेत, जेव्हा विंडोज "एमएमई" ऑडिओ होस्ट निवडले जाते तेव्हा "मायक्रोसॉफ्ट साउंड मॅपर - आउटपुट" दिसते. हे "मॅपर" डिव्हाइस स्वतंत्र प्लेबॅक डिव्हाइस नाही, परंतु ते असे डिव्हाइस आहे जे सध्या विंडोज कंट्रोल पॅनेलमधील डीफॉल्ट सिस्टम प्लेबॅक डिव्हाइस म्हणून निवडले गेले आहे. जेव्हा "विंडोज डायरेक्टसाऊंड" ऑडिओ होस्ट निवडले जाते, तेव्हा विद्यमान विंडोज प्लेबॅक डिव्हाइसवर नकाशे करणार्‍या डिव्हाइसला "प्राइमरी साउंड ड्राइव्हर" असे म्हणतात.</t>
-  </si>
-  <si>
-    <t>बर्‍याच इतर प्रकरणांमध्ये (उदाहरणार्थ, इनबिल्ट कॉम्प्यूटर साऊंड डिव्हाइस) प्लेबॅक डिव्हाइसच्या प्रत्येक प्रविष्टीमध्ये प्लेबॅक डिव्हाइसचा प्रकार असतो (जसे स्पीकर्स), त्यानंतर साऊंड कार्ड उत्पादकाच्या (जसे रियलटेक, साउंडमेक्स) नावाच्या कंस असतात. किंवा आयडीटी ऑडिओ).</t>
-  </si>
-  <si>
-    <t>मॅक वर, अंतर्गत साउंड कार्ड प्लेबॅक डिव्हाइस सामान्यत: "अंगभूत" असे म्हटले जाते.</t>
-  </si>
-  <si>
-    <t>जीएनयू / लिनक्स वर प्लेबॅक बर्‍याचदा साऊंड सर्व्हर किंवा मिक्सरद्वारे नाडी किंवा डीमिक्सद्वारे व्यवस्थापित केले जाते. सामान्यतः "डीफॉल्ट" निवडणे चांगले. हे सिस्टम डीफॉल्ट प्लेबॅक डिव्हाइस किंवा सर्व्हर जे आहे ते निवडेल. (एचडब्ल्यू :) प्लेबॅक साधने कोणत्याही ध्वनी सर्व्हरला सोडून, ​​साउंड कार्ड आउटपुटमध्ये थेट, कमी विलंब प्रवेश प्रदान करतात.</t>
+    <t>डिव्हाइस साधनपट्टी - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोध</t>
+  </si>
+  <si>
+    <t>डिव्हाइस साधनपट्टी</t>
+  </si>
+  <si>
+    <t>डिव्‍हाइस साधनपट्टी आपले ध्वनी होस्ट, ध्वनिमुद्रण डिव्‍हाइस, ध्वनिमुद्रण  चॅनेल आणि प्लेबॅक डिव्‍हाइसची आवश्‍यकता निवडण्यासाठी, डिव्‍हाइसेस प्राधान्ये न उघडता एक सोपा मार्ग प्रदान करतो.</t>
+  </si>
+  <si>
+    <t>रिसाईजर</t>
+  </si>
+  <si>
+    <t>उजवीकडील रिसाईजर हँडल वापरुन, आपण दर्शविलेले डीफॉल्ट रुंदीपेक्षा विस्तृत होण्यासाठी डिव्हाइस साधनपट्टी उजवीकडे वरुन विस्तृत करू शकता किंवा त्यास कमी रुंद करण्यासाठी डावीकडे ड्रॅग करा. निवडलेल्या आयटमसाठी पूर्ण मजकूर पाहण्यासाठी आपण कधीही ओड्यासिटीच्या चार बॉक्सपैकी कोणत्याही एकावर फिरू शकता.</t>
+  </si>
+  <si>
+    <t>ध्वनी होस्ट</t>
+  </si>
+  <si>
+    <t>विशिष्ट मुखपृष्ठ निवडतो ज्याद्वारे ओड्यासिटी आपल्या निवडलेल्या प्लेबॅक आणि ध्वनिमुद्रण डिव्हाइससह संप्रेषण करते.</t>
+  </si>
+  <si>
+    <t>विंडोजवर, निवड खालील ध्वनी मुखपृष्ठ दरम्यान आहे :</t>
+  </si>
+  <si>
+    <t>एमएमईः हे ओड्यासिटी डीफॉल्ट आहे आणि सर्व ध्वनी डिव्हाइससह सर्वात अनुकूल आहे.</t>
+  </si>
+  <si>
+    <t>विंडोज WASAPI : हे होस्ट अनुप्रयोग (जसे की ओड्यासिटी) आणि ध्वनी मुखपृष्ठ ड्राइव्हर दरम्यान सर्वात अलीकडील विंडोज मुखपृष्ठ आहे. WASAPI प्रथम अधिकृतपणे 2007 मध्ये विंडोज व्हिस्टामध्ये प्रसिद्ध झाले. खासकरुन संगणक प्लेबॅक ध्वनिमुद्रणसाठी "लूपबॅक" करण्यासाठी वासा उपयुक्त आहे. हे होस्ट वापरुन 24-बिट ध्वनिमुद्रण डिव्हाइस समर्थित आहेत. प्लेबॅक सहसा अनुकरण केले जाते. याचा परिणाम म्हणून, मिक्सर साधनपट्टीमधील प्लेबॅक स्लाइडर थेट सिस्टम स्लाइडरमध्ये फेरफार करण्याऐवजी सिस्टम प्लेबॅक स्लाइडरची सद्य पातळी खाली किंवा खाली स्केल करेल.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> विंडोज डायरेक्टसाऊंड किंवा विंडोज डब्ल्यूएएसपीआय निवडणे आणि विंडोज साऊंडमध्ये दोन्ही "विशेष मोड" बॉक्स सक्षम केल्याने ओड्यासिटीला पुन्हा तयार केल्याशिवाय डिव्हाइसमधून ध्वनी थेट विनंती करण्याची परवानगी मिळते.</t>
+  </si>
+  <si>
+    <t>See ASIO Audio Interface which summarizes ASIO licensing issues and steps to compile Audacity with ASIO support.</t>
+  </si>
+  <si>
+    <t>विंडोजवर कमी विलंब ध्वनिमुद्रण आणि प्लेबॅकसाठी मालकीचे एएसआयओ मुखपृष्ठ मानक आवश्यक आहे. विंडोजवर मल्टी-चॅनेल ध्वनिमुद्रण करण्याचा हा एक सामान्य मार्ग देखील आहे. लायसेंसिंग प्रतिबंध आम्हाला ओड्यासिटीच्या रिलीज केलेल्या आवृत्त्यांमध्ये एएसआयओ समर्थन समाविष्ट करण्यास प्रतिबंधित करते, परंतु ओड्यासिटी खाजगी, वितरित न करण्यायोग्य वापरासाठी एएसआयओ समर्थनासह संकलित केले जाऊ शकते.</t>
+  </si>
+  <si>
+    <t>एएसआयओ ध्वनी मुखपृष्ठ पहा जे एएसआयओ परवाना देणार्‍या समस्यांचा सारांश देते आणि एएसआयओ समर्थनासह ओड्यासिटी संकलित करण्यासाठीच्या चरणांचे.एएसआयओ ध्वनी मुखपृष्ठ पहा जे एएसआयओ परवाना देणार्‍या समस्यांचा सारांश देते आणि एएसआयओ समर्थनासह ओड्यासिटी संकलित करण्यासाठीच्या चरणांचे.</t>
+  </si>
+  <si>
+    <t>मॅक वर एकमेव पर्याय कोअर ध्वनी आहे.</t>
+  </si>
+  <si>
+    <t>ध्वनिमुद्रण डिव्हाइस</t>
+  </si>
+  <si>
+    <t>आपण ध्वनिमुद्रणसाठी वापरू इच्छित अंगभूत किंवा संलग्न ध्वनी डिव्हाइस निवडा.</t>
+  </si>
+  <si>
+    <t>वरील प्रतिमेत, जेव्हा विंडोज "एमएमई" ध्वनी होस्ट निवडले जाते तेव्हा "मायक्रोसॉफ्ट साउंड मॅपर - इनपुट" दिसते. त्याचप्रमाणे "मॅपर" आउटपुट प्रमाणे, "मॅपर" इनपुट असे डिव्हाइस आहे जे विद्यमान डीफॉल्ट विंडोज ध्वनिमुद्रण डिव्हाइस आहे. जेव्हा "विंडोज डायरेक्टसाऊंड" ध्वनी होस्ट निवडले जाते, तेव्हा विद्यमान विंडोज ध्वनिमुद्रण डिव्हाइसवर नकाशे करणार्‍या डिव्हाइसला "प्राइमरी साउंड कॅप्चर ड्राइव्हर" असे म्हणतात.</t>
+  </si>
+  <si>
+    <t>बर्‍याच प्रकरणांमध्ये (उदाहरणार्थ, इनबिल्ट कॉम्प्यूटर साऊंड डिव्हाइस) ध्वनिमुद्रण डिव्हाइसच्या प्रत्येक एंट्रीमध्ये डिव्हाइसचे प्रकार असतात (जसे की मायक्रोफोन), ज्याचे नाव नंतर कंसात ठेवले जाते</t>
+  </si>
+  <si>
+    <t>मॅक वर, अंतर्गत आवाजाचे कार्ड ध्वनिमुद्रण इनपुट सामान्यत: "अंगभूत" म्हणून ओळखले जातात.</t>
+  </si>
+  <si>
+    <t>GNU / Linux वर, ध्वनिमुद्रण बर्‍याचदा पल्स साऊंड सर्व्हरद्वारे व्यवस्थापित केले जाते. सामान्यतः "डीफॉल्ट" निवडणे चांगले. हे सिस्टीम डीफॉल्ट साउंड कार्ड किंवा सर्व्हर जे आहे ते निवडेल, नंतर कार्ड किंवा सर्व्हरसाठी नियंत्रण अनुप्रयोगात आवश्यक असलेले अचूक इनपुट डिव्हाइस निवडा (जसे की पल्स ध्वनी व्हॉल्यूम कंट्रोल). (एचडब्ल्यू :) ध्वनिमुद्रण डिव्हाइस कोणत्याही ध्वनी सर्व्हरला मागे टाकून ध्वनी मुखपृष्ठ इनपुटमध्ये थेट, कमी उशीरा प्रवेश देते. अंगभूत (एचडब्ल्यू :) आवाज उपकरणासाठी, ALSAmixer मधील अचूक इनपुट निवडा.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी खुला असताना आपण एखादे बाह्य डिव्हाइस संलग्न किंवा डिस्कनेक्ट केले असल्यास, प्ले किंवा ध्वनिमुद्रण करण्यापूर्वी डिव्हाइस सूची अद्यतनित करण्यासाठी परिवहन&gt; रेस्कन ध्वनी डिव्हाइस वापरा.</t>
+  </si>
+  <si>
+    <t>ध्वनिमुद्रण वाहिनी</t>
+  </si>
+  <si>
+    <t>१ (मोनो), २ (स्टीरिओ) किंवा आपल्या आवाज डिव्हाइसच्या ड्रायव्हर्सद्वारे प्रदान केलेल्या वाहिनीची संख्या. बर्‍याच इनबिल्ट साउंड डिव्‍हाइसेसवर, विशेषत: विंडोजवर, फक्त मोनो किंवा स्टीरिओ उपलब्ध असतील. विंडोजवरील काही उपकरणांसाठी, उपरोक्त "ध्वनी होस्ट" मध्ये विंडोज डायरेक्टसाऊंड निवडणे कदाचित दोनपेक्षा जास्त वाहिनी ध्वनिमुद्रण करण्यासाठी पर्याय प्रकट करू शकेल. दोनपेक्षा अधिक वाहिनी ध्वनिमुद्रण करण्यास सक्षम असलेल्या काही डिव्हाइसवर, सर्व वाहिनी एकाच वेळी ध्वनिमुद्रण करण्यासाठी "डिव्हाइस" ड्रॉपडाऊनमध्ये एक स्पष्ट "मल्टी" डिव्हाइस दिसू शकते.</t>
+  </si>
+  <si>
+    <t>जर आपले ध्वनिमुद्रण डिव्हाइस मोनो असेल तर जसे की इनबिल्ट ध्वनी डिव्हाइससाठी बहुतेक मायक्रोफोन पोर्ट, ध्वनिमुद्रण वाहिनीमधील "२ (स्टीरिओ)" निवडणे केवळ दुहेरी मोनो ध्वनिमुद्रण तयार करून, दोन्ही चॅनेलमध्ये मोनो स्त्रोताची प्रत बनवते.</t>
+  </si>
+  <si>
+    <t>जर आपले ध्वनिमुद्रण डिव्हाइस स्टिरीओ असेल तर ध्वनिमुद्रण वाहिनी "२ (स्टीरिओ)" वर सेट करणे तसेच सिस्टीममधील कोणतीही सेटिंग्ज किंवा ध्वनी डिव्हाइस नियंत्रण पॅनेल स्टिरीओ असल्याचे सुनिश्चित करा. विंडोजवरील बर्‍याच इनपुट डिव्हाइसेस मोटो ध्वनिमुद्रणमध्ये डीफॉल्ट नसतात जरी ते स्टिरिओ डिव्हाइस असतात. हे दुरुस्त करण्यासाठी या सूचनांचे अनुसरण करा.</t>
+  </si>
+  <si>
+    <t>वरील प्रतिमेत, जेव्हा विंडोज "एमएमई" ध्वनी होस्ट निवडले जाते तेव्हा "मायक्रोसॉफ्ट साउंड मॅपर - आउटपुट" दिसते. हे "मॅपर" डिव्हाइस स्वतंत्र प्लेबॅक डिव्हाइस नाही, परंतु ते असे डिव्हाइस आहे जे सध्या विंडोज कंट्रोल पॅनेलमधील डीफॉल्ट सिस्टम प्लेबॅक डिव्हाइस म्हणून निवडले गेले आहे. जेव्हा "विंडोज डायरेक्टसाऊंड" ध्वनी होस्ट निवडले जाते, तेव्हा विद्यमान विंडोज प्लेबॅक डिव्हाइसवर नकाशे करणार्‍या डिव्हाइसला "प्राइमरी साउंड ड्राइव्हर" असे म्हणतात.</t>
+  </si>
+  <si>
+    <t>बर्‍याच इतर प्रकरणांमध्ये (उदाहरणार्थ, इनबिल्ट संगणकाचे आवाज डिव्हाइस) प्लेबॅक डिव्हाइसच्या प्रत्येक प्रविष्टीमध्ये प्लेबॅक डिव्हाइसचा प्रकार असतो (जसे स्पीकर्स), त्यानंतर आवाजाचे कार्ड उत्पादकाच्या (जसे रियलटेक, साउंडमेक्स) नावाच्या कंस असतात. किंवा आयडीटी ध्वनी).</t>
+  </si>
+  <si>
+    <t>मॅक वर, अंतर्गत आवाजाचे कार्ड प्लेबॅक डिव्हाइस सामान्यत: "अंगभूत" असे म्हटले जाते.</t>
+  </si>
+  <si>
+    <t>जीएनयू / लिनक्स वर, प्लेबॅक बर्‍याचदा आवाजाचे सर्व्हर किंवा मिक्सरद्वारे नाडी किंवा डीमिक्सद्वारे व्यवस्थापित केले जाते. सामान्यतः "डीफॉल्ट" निवडणे चांगले. हे सिस्टम डीफॉल्ट प्लेबॅक डिव्हाइस किंवा सर्व्हर जे आहे ते निवडेल. (एचडब्ल्यू :) प्लेबॅक साधने कोणत्याही ध्वनी सर्व्हरला सोडून, ​​आवाजाचे कार्ड आउटपुटमध्ये थेट, कमी विलंब प्रवेश प्रदान करतात.</t>
   </si>
 </sst>
 </file>
@@ -324,11 +324,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,9 +626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -645,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -656,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -667,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -678,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -689,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -700,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -711,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -722,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -732,8 +739,8 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>51</v>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -744,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -766,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -777,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -788,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -798,8 +805,8 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
+      <c r="C16" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -810,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -821,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -832,7 +839,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -842,8 +849,8 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>61</v>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -851,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -862,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -873,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -884,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -895,10 +902,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -906,10 +913,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -917,10 +924,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -928,10 +935,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -939,10 +946,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -950,10 +957,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -961,10 +968,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -972,10 +979,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -983,10 +990,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -994,10 +1001,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1005,10 +1012,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1016,10 +1023,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1027,10 +1034,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1038,10 +1045,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1049,9 +1056,9 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1060,9 +1067,9 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1071,7 +1078,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -1082,13 +1089,14 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>